--- a/ExcelFiles/CCr_eGFR.xlsx
+++ b/ExcelFiles/CCr_eGFR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hihum\Dropbox\zCodeLinuxTorikumi\zRinshoExcels\RenalFunction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A798E1-2ED5-4CA0-BD08-E7152C99B926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6199DB-2CF3-4D11-8798-FE9B618EE509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,7 +627,7 @@
   <dimension ref="B2:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5"/>
